--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clair\Documents\0_projects\educ-quant\641\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7967D-DB6C-4368-BC34-5FBF2A983AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A79A90-4F30-4594-8DDC-3D9186E907FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0910BBF9-32EE-4140-B803-C83B760B8A59}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Summarizing and displaying continuous data</t>
   </si>
   <si>
-    <t>LSWR Ch 2</t>
-  </si>
-  <si>
     <t>LSWR Ch 3</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Assignment 5</t>
   </si>
   <si>
-    <t>LSWR Ch 7</t>
-  </si>
-  <si>
     <t>LSWR Ch 13</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>LSWR Ch 2 and 7</t>
+  </si>
+  <si>
+    <t>LSWR Ch 12</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -552,13 +552,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -572,13 +572,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -589,16 +589,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -612,13 +612,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -629,36 +629,36 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clair\Documents\0_projects\educ-quant\641\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\641\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A79A90-4F30-4594-8DDC-3D9186E907FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0910BBF9-32EE-4140-B803-C83B760B8A59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
-    <t>Unites</t>
-  </si>
-  <si>
     <t>Weeks</t>
   </si>
   <si>
@@ -60,19 +56,7 @@
     <t>8-10</t>
   </si>
   <si>
-    <t>Intro scienctific principals and data analysis</t>
-  </si>
-  <si>
-    <t>summarizing and displaying categorical data</t>
-  </si>
-  <si>
     <t>Summarizing and displaying continuous data</t>
-  </si>
-  <si>
-    <t>LSWR Ch 3</t>
-  </si>
-  <si>
-    <t>LSWR Ch 5</t>
   </si>
   <si>
     <t>Required Readings</t>
@@ -80,9 +64,6 @@
   <si>
     <t xml:space="preserve">
 Assignment 2</t>
-  </si>
-  <si>
-    <t>Assingment 1</t>
   </si>
   <si>
     <t>Quiz 1</t>
@@ -129,16 +110,34 @@
     <t xml:space="preserve"> -</t>
   </si>
   <si>
-    <t>LSWR Ch 2 and 7</t>
-  </si>
-  <si>
-    <t>LSWR Ch 12</t>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Intro to scienctific principles and data analysis</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
+  </si>
+  <si>
+    <t>Summarizing and displaying categorical data</t>
+  </si>
+  <si>
+    <t>LSWR Ch 3 &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 2 and 7 &lt;br&gt; [Evans 2020](https://www.newstatesman.com/uncategorized/2020/07/ra-fisher-and-science-hatred)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 12 &lt;br&gt; [Levy 2019](http://gppreview.com/2019/12/16/eugenics-ethics-statistical-analysis/)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 5 &lt;br&gt; [Hu 2021](https://bostonreview.net/science-nature-race/lily-hu-race-policing-and-limits-social-science)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -189,7 +188,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,11 +503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537AD30A-A739-4996-B7BB-F89C2140C68A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,27 +521,27 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,16 +569,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -586,19 +586,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,19 +606,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -626,39 +626,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -81,9 +81,6 @@
     <t>Quiz 5</t>
   </si>
   <si>
-    <t>Assingment 3</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>LSWR Ch 5 &lt;br&gt; [Hu 2021](https://bostonreview.net/science-nature-race/lily-hu-race-policing-and-limits-social-science)</t>
+  </si>
+  <si>
+    <t>Assignment 3</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -549,13 +549,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -569,13 +569,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -589,10 +589,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -612,10 +612,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -629,13 +629,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -643,22 +643,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -92,9 +92,6 @@
     <t>Assignment 5</t>
   </si>
   <si>
-    <t>LSWR Ch 13</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -119,19 +116,22 @@
     <t>Summarizing and displaying categorical data</t>
   </si>
   <si>
-    <t>LSWR Ch 3 &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
-  </si>
-  <si>
-    <t>LSWR Ch 2 and 7 &lt;br&gt; [Evans 2020](https://www.newstatesman.com/uncategorized/2020/07/ra-fisher-and-science-hatred)</t>
-  </si>
-  <si>
-    <t>LSWR Ch 12 &lt;br&gt; [Levy 2019](http://gppreview.com/2019/12/16/eugenics-ethics-statistical-analysis/)</t>
-  </si>
-  <si>
-    <t>LSWR Ch 5 &lt;br&gt; [Hu 2021](https://bostonreview.net/science-nature-race/lily-hu-race-policing-and-limits-social-science)</t>
-  </si>
-  <si>
     <t>Assignment 3</t>
+  </si>
+  <si>
+    <t>LSWR Ch 2 and 3 &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 6 &lt;br&gt; [Evans 2020](https://www.newstatesman.com/uncategorized/2020/07/ra-fisher-and-science-hatred)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 11 and 12 &lt;br&gt; [Levy 2019](http://gppreview.com/2019/12/16/eugenics-ethics-statistical-analysis/)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 5 and 10 &lt;br&gt; [Hu 2021](https://bostonreview.net/science-nature-race/lily-hu-race-policing-and-limits-social-science)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 15.1-15.2</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -549,13 +549,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -569,13 +569,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -615,7 +615,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -629,10 +629,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -646,19 +646,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -89,9 +89,6 @@
 </t>
   </si>
   <si>
-    <t>Assignment 5</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>LSWR Ch 15.1-15.2</t>
+  </si>
+  <si>
+    <t>Final Project</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -549,13 +549,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -569,13 +569,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -589,10 +589,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -612,10 +612,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -629,10 +629,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -646,19 +646,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Weeks</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>Quizzes</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>8-10</t>
   </si>
   <si>
     <t>Summarizing and displaying continuous data</t>
@@ -132,6 +123,42 @@
   </si>
   <si>
     <t>Final Project</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>Threats to quantitative inference and wrap-up</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -504,18 +531,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
@@ -523,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -532,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -542,123 +569,143 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\641\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\EDUC641_22F\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Weeks</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Assignments</t>
-  </si>
-  <si>
-    <t>Quizzes</t>
   </si>
   <si>
     <t>Summarizing and displaying continuous data</t>
@@ -55,21 +52,6 @@
   <si>
     <t xml:space="preserve">
 Assignment 2</t>
-  </si>
-  <si>
-    <t>Quiz 1</t>
-  </si>
-  <si>
-    <t>Quiz 2</t>
-  </si>
-  <si>
-    <t>Quiz 3</t>
-  </si>
-  <si>
-    <t>Quiz 4</t>
-  </si>
-  <si>
-    <t>Quiz 5</t>
   </si>
   <si>
     <t>Final</t>
@@ -107,9 +89,6 @@
     <t>Assignment 3</t>
   </si>
   <si>
-    <t>LSWR Ch 2 and 3 &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
-  </si>
-  <si>
     <t>LSWR Ch 6 &lt;br&gt; [Evans 2020](https://www.newstatesman.com/uncategorized/2020/07/ra-fisher-and-science-hatred)</t>
   </si>
   <si>
@@ -159,6 +138,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>LSWR Ch 2 and 3 &lt;br&gt; [Clayton 2020](https://nautil.us/how-eugenics-shaped-statistics-238014/)</t>
   </si>
 </sst>
 </file>
@@ -531,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,9 +530,9 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -559,153 +541,129 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -95,9 +95,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Intro to scienctific principles and data analysis</t>
-  </si>
-  <si>
     <t>Assignment 1</t>
   </si>
   <si>
@@ -107,18 +104,6 @@
     <t>Assignment 3</t>
   </si>
   <si>
-    <t>LSWR Ch 2 and 3 &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
-  </si>
-  <si>
-    <t>LSWR Ch 6 &lt;br&gt; [Evans 2020](https://www.newstatesman.com/uncategorized/2020/07/ra-fisher-and-science-hatred)</t>
-  </si>
-  <si>
-    <t>LSWR Ch 11 and 12 &lt;br&gt; [Levy 2019](http://gppreview.com/2019/12/16/eugenics-ethics-statistical-analysis/)</t>
-  </si>
-  <si>
-    <t>LSWR Ch 5 and 10 &lt;br&gt; [Hu 2021](https://bostonreview.net/science-nature-race/lily-hu-race-policing-and-limits-social-science)</t>
-  </si>
-  <si>
     <t>LSWR Ch 15.1-15.2</t>
   </si>
   <si>
@@ -159,6 +144,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Intro to scientific principles and data analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSWR Ch 5 and 10 </t>
+  </si>
+  <si>
+    <t>LSWR Ch 11 and 12 &lt;br&gt; [Evans 2020](https://www.newstatesman.com/uncategorized/2020/07/ra-fisher-and-science-hatred)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 6 &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 2 and 3 &lt;br&gt;Light, Singer &amp; Willet 1990, Ch. 2</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,16 +570,16 @@
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -590,19 +590,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -610,16 +610,16 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -630,19 +630,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -650,16 +650,16 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -670,22 +670,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -92,9 +92,6 @@
     <t xml:space="preserve"> -</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>Assignment 1</t>
   </si>
   <si>
@@ -158,7 +155,10 @@
     <t>LSWR Ch 6 &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
   </si>
   <si>
-    <t>LSWR Ch 2 and 3 &lt;br&gt;Light, Singer &amp; Willet 1990, Ch. 2</t>
+    <t>LSWR Ch 2 and 3 &lt;br&gt; Light, Singer &amp; Willet 1990, Ch. 2</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -570,16 +570,16 @@
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -590,19 +590,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -610,16 +610,16 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -630,19 +630,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -650,16 +650,16 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -670,22 +670,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\641\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\EDUC641_23F\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,16 +149,16 @@
     <t xml:space="preserve">LSWR Ch 5 and 10 </t>
   </si>
   <si>
-    <t>LSWR Ch 11 and 12 &lt;br&gt; [Evans 2020](https://www.newstatesman.com/uncategorized/2020/07/ra-fisher-and-science-hatred)</t>
-  </si>
-  <si>
-    <t>LSWR Ch 6 &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
-  </si>
-  <si>
-    <t>LSWR Ch 2 and 3 &lt;br&gt; Light, Singer &amp; Willet 1990, Ch. 2</t>
-  </si>
-  <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>LSWR Ch 2 and 3  &lt;br&gt; Light, Singer &amp; Willet 1990, Ch. 2</t>
+  </si>
+  <si>
+    <t>LSWR Ch 6  &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 11 and 12  &lt;br&gt; [Evans 2020](https://www.newstatesman.com/uncategorized/2020/07/ra-fisher-and-science-hatred)</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -599,7 +599,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -619,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\EDUC641_23F\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360F748B-2EC4-4884-A74D-9BA9E17AF4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -152,19 +144,19 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>LSWR Ch 2 and 3  &lt;br&gt; Light, Singer &amp; Willet 1990, Ch. 2</t>
-  </si>
-  <si>
     <t>LSWR Ch 6  &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
   </si>
   <si>
     <t>LSWR Ch 11 and 12  &lt;br&gt; [Evans 2020](https://www.newstatesman.com/uncategorized/2020/07/ra-fisher-and-science-hatred)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 2 and 3  &lt;br&gt; [Light, Singer &amp; Willet 1990, Ch. 2](./assignments/Light Singer Willett 1990.pdf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,16 +199,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,25 +521,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -568,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -578,8 +569,8 @@
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -588,7 +579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -598,8 +589,8 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>39</v>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -608,7 +599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -619,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -628,7 +619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -638,7 +629,7 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -648,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -668,7 +659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -688,7 +679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>

--- a/data/syllabus.xlsx
+++ b/data/syllabus.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\EDUC641_23F\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360F748B-2EC4-4884-A74D-9BA9E17AF4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,19 +143,19 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>LSWR Ch 6  &lt;br&gt; [Clayton 2020](https://nautil.us/issue/92/frontiers/how-eugenics-shaped-statistics)</t>
-  </si>
-  <si>
     <t>LSWR Ch 11 and 12  &lt;br&gt; [Evans 2020](https://www.newstatesman.com/uncategorized/2020/07/ra-fisher-and-science-hatred)</t>
   </si>
   <si>
     <t>LSWR Ch 2 and 3  &lt;br&gt; [Light, Singer &amp; Willet 1990, Ch. 2](./assignments/Light Singer Willett 1990.pdf)</t>
+  </si>
+  <si>
+    <t>LSWR Ch 6  &lt;br&gt; [Clayton 2020](https://nautil.us/how-eugenics-shaped-statistics-238014)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,25 +520,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -559,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -570,7 +569,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -579,7 +578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -590,7 +589,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -599,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -610,7 +609,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -619,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -639,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -659,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -679,7 +678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
